--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf3-Tdgf1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf3-Tdgf1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>Tdgf1</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -531,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.658553333333334</v>
+        <v>15.042283</v>
       </c>
       <c r="H2">
-        <v>25.97566</v>
+        <v>45.126849</v>
       </c>
       <c r="I2">
-        <v>0.6277547249758614</v>
+        <v>0.4622287068730439</v>
       </c>
       <c r="J2">
-        <v>0.6277547249758614</v>
+        <v>0.4626185066002986</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -549,10 +555,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.006530999999999999</v>
+        <v>0.08586166666666667</v>
       </c>
       <c r="N2">
-        <v>0.019593</v>
+        <v>0.257585</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.05654901182</v>
+        <v>1.291555488851667</v>
       </c>
       <c r="R2">
-        <v>0.50894110638</v>
+        <v>11.623999399665</v>
       </c>
       <c r="S2">
-        <v>0.6277547249758614</v>
+        <v>0.4622287068730439</v>
       </c>
       <c r="T2">
-        <v>0.6277547249758614</v>
+        <v>0.4626185066002986</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,31 +584,31 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>5.134339000000001</v>
+        <v>0.0822615</v>
       </c>
       <c r="H3">
-        <v>15.403017</v>
+        <v>0.164523</v>
       </c>
       <c r="I3">
-        <v>0.3722452750241387</v>
+        <v>0.002527782968212797</v>
       </c>
       <c r="J3">
-        <v>0.3722452750241387</v>
+        <v>0.00168660977329485</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -611,10 +617,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.006530999999999999</v>
+        <v>0.08586166666666667</v>
       </c>
       <c r="N3">
-        <v>0.019593</v>
+        <v>0.257585</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -623,16 +629,78 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.033532368009</v>
+        <v>0.007063109492500001</v>
       </c>
       <c r="R3">
-        <v>0.301791312081</v>
+        <v>0.042378656955</v>
       </c>
       <c r="S3">
-        <v>0.3722452750241387</v>
+        <v>0.002527782968212797</v>
       </c>
       <c r="T3">
-        <v>0.3722452750241387</v>
+        <v>0.00168660977329485</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>17.41839966666667</v>
+      </c>
+      <c r="H4">
+        <v>52.255199</v>
+      </c>
+      <c r="I4">
+        <v>0.5352435101587433</v>
+      </c>
+      <c r="J4">
+        <v>0.5356948836264065</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.08586166666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.257585</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1.495572826046111</v>
+      </c>
+      <c r="R4">
+        <v>13.460155434415</v>
+      </c>
+      <c r="S4">
+        <v>0.5352435101587433</v>
+      </c>
+      <c r="T4">
+        <v>0.5356948836264065</v>
       </c>
     </row>
   </sheetData>
